--- a/data/comp_lib_fuel.xlsx
+++ b/data/comp_lib_fuel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42023145-3F62-454C-8BE2-F777DBED9A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B066E2-51B5-4D48-B7BD-916FA5658E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="17895" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="3540" windowWidth="17895" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Нафталин</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Название</t>
-  </si>
-  <si>
-    <t>Номер</t>
   </si>
   <si>
     <t>Энтальпия</t>
@@ -415,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -434,7 +431,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -449,36 +446,33 @@
         <v>22</v>
       </c>
       <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>128.74</v>
+      </c>
       <c r="E2">
-        <v>128.74</v>
+        <v>78.019000000000005</v>
       </c>
       <c r="F2">
-        <v>78.019000000000005</v>
+        <v>62.414999999999999</v>
       </c>
       <c r="G2">
-        <v>62.414999999999999</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -489,66 +483,60 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>140.19399999999999</v>
+      </c>
       <c r="E3">
-        <v>140.19399999999999</v>
+        <v>42.738</v>
       </c>
       <c r="F3">
-        <v>42.738</v>
+        <v>85.596000000000004</v>
       </c>
       <c r="G3">
-        <v>85.596000000000004</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>28.532</v>
       </c>
       <c r="I3">
-        <v>28.532</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
         <v>8</v>
       </c>
+      <c r="D4">
+        <v>178.23400000000001</v>
+      </c>
       <c r="E4">
-        <v>178.23400000000001</v>
+        <v>78.548000000000002</v>
       </c>
       <c r="F4">
-        <v>78.548000000000002</v>
+        <v>56.106000000000002</v>
       </c>
       <c r="G4">
-        <v>56.106000000000002</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -559,31 +547,28 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
         <v>-740</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="E5">
+        <v>64.221999999999994</v>
+      </c>
       <c r="F5">
-        <v>64.221999999999994</v>
+        <v>59.927999999999997</v>
       </c>
       <c r="G5">
-        <v>59.927999999999997</v>
+        <v>9.9979999999999993</v>
       </c>
       <c r="H5">
-        <v>9.9979999999999993</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -591,34 +576,31 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
         <v>-345</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
       <c r="E6">
-        <v>400</v>
+        <v>61.377000000000002</v>
       </c>
       <c r="F6">
-        <v>61.377000000000002</v>
+        <v>71.725999999999999</v>
       </c>
       <c r="G6">
-        <v>71.725999999999999</v>
+        <v>11.906000000000001</v>
       </c>
       <c r="H6">
-        <v>11.906000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -626,25 +608,22 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
+      <c r="D7">
+        <v>24.32</v>
       </c>
       <c r="E7">
-        <v>24.32</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -656,12 +635,9 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>41.118000000000002</v>
       </c>
       <c r="J7">
-        <v>41.118000000000002</v>
-      </c>
-      <c r="K7">
         <v>0</v>
       </c>
     </row>
